--- a/Requerimientos.xlsx
+++ b/Requerimientos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C34D6D4-8FF6-4872-9F8D-A7102040B7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08950796-7AFC-40A3-A75D-1CFCBCA3231D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7A99C71F-B794-498D-B858-2FA677687D15}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>REQUERIMIENTOS</t>
   </si>
@@ -137,9 +137,6 @@
     <t>El sistema debe crear el usuario inactivamente para ser activado por un super administrador</t>
   </si>
   <si>
-    <t>El usuario podra cargar archivos, cambiarlos y borrarlos.</t>
-  </si>
-  <si>
     <t>El sistema no debe eliminar ningun archivo solo ponerlo inactivo.</t>
   </si>
   <si>
@@ -147,6 +144,12 @@
   </si>
   <si>
     <t>Panel_seguridad_salud_trabajo</t>
+  </si>
+  <si>
+    <t>El sistema debe guardar archivos con el nombre y fecha de modificacion</t>
+  </si>
+  <si>
+    <t>El usuario podra con nombre, cargar archivos, cambiarlos y borrarlos.</t>
   </si>
 </sst>
 </file>
@@ -224,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -312,11 +315,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -325,15 +365,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,22 +384,41 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -688,7 +738,7 @@
   <dimension ref="B2:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,84 +749,84 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+      <c r="B6" s="21">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>5</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>6</v>
       </c>
@@ -787,76 +837,76 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="B11" s="21">
         <v>7</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>8</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>9</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>10</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>11</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>12</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10">
         <v>13</v>
       </c>
@@ -867,18 +917,18 @@
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
+      <c r="B19" s="21">
         <v>14</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10">
         <v>15</v>
       </c>
@@ -889,58 +939,58 @@
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="10">
+      <c r="B21" s="21">
         <v>16</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="10">
+      <c r="B22" s="7">
         <v>17</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="10">
+      <c r="B23" s="7">
         <v>18</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="10">
+      <c r="B24" s="7">
         <v>19</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="10">
+      <c r="B25" s="7">
         <v>20</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10">
         <v>21</v>
       </c>
@@ -951,60 +1001,63 @@
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="10">
+      <c r="B27" s="7">
         <v>22</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="12"/>
+      <c r="D27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="10">
+      <c r="B28" s="7">
         <v>23</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="10">
+      <c r="B29" s="7">
         <v>24</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <v>25</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="10">
-        <v>25</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="10">
+        <v>26</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="13">
-        <v>26</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">

--- a/Requerimientos.xlsx
+++ b/Requerimientos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08950796-7AFC-40A3-A75D-1CFCBCA3231D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAD4161-47FE-4D1E-9DE9-64FA10FF1867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7A99C71F-B794-498D-B858-2FA677687D15}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>REQUERIMIENTOS</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>El usuario podra con nombre, cargar archivos, cambiarlos y borrarlos.</t>
+  </si>
+  <si>
+    <t>El usuario desea tener una opcion para ir a recuperar la contraseña</t>
+  </si>
+  <si>
+    <t>El usuario desea ingresar su correo para la recuperacion de contraseña</t>
+  </si>
+  <si>
+    <t>El sistema debera enviarle un codigo de validacion para la recuperacion  de contraseña</t>
   </si>
 </sst>
 </file>
@@ -165,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,8 +235,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -316,47 +331,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -384,33 +380,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -421,6 +394,32 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6736212D-37F5-4E3D-8185-70E9663A64D7}">
-  <dimension ref="B2:G85"/>
+  <dimension ref="B2:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,12 +748,12 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
@@ -772,556 +771,582 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="21">
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
-        <v>6</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="21">
-        <v>7</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="24"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
-        <v>9</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+    <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10">
+        <v>6</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+      <c r="B14" s="13">
+        <v>7</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
+      <c r="B17" s="7">
+        <v>10</v>
+      </c>
       <c r="C17" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="10">
         <v>13</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="21">
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="13">
         <v>14</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D22" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="10">
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="10">
         <v>15</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="21">
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="13">
         <v>16</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
-        <v>17</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
-        <v>18</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
-        <v>19</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10">
-        <v>21</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>18</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>36</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="7">
+    <row r="29" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="10">
+        <v>21</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="13">
+        <v>22</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <v>23</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
         <v>24</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
         <v>25</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="10">
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="28">
         <v>26</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32">
+      <c r="D34" s="8"/>
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="10">
         <v>27</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C35" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33">
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48">
         <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>43</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88">
         <v>80</v>
       </c>
     </row>

--- a/Requerimientos.xlsx
+++ b/Requerimientos.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAD4161-47FE-4D1E-9DE9-64FA10FF1867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4CC82A-08F0-423C-81AE-E699B70786C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7A99C71F-B794-498D-B858-2FA677687D15}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="REQUERIMIENTOS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>REQUERIMIENTOS</t>
   </si>
@@ -59,9 +59,6 @@
     <t>El usuario debera recibir un codigo al correo para validar su creacion.</t>
   </si>
   <si>
-    <t>El usuario podra registrarse con nombre completo, correo, contraseña, cedula y area a la que pertenece</t>
-  </si>
-  <si>
     <t>El sistema debe mostrar el nombre de la persona en la parte superior</t>
   </si>
   <si>
@@ -159,6 +156,12 @@
   </si>
   <si>
     <t>El sistema debera enviarle un codigo de validacion para la recuperacion  de contraseña</t>
+  </si>
+  <si>
+    <t>El usuario podra registrarse con nombre completo, correo, contraseña, cedula ,area y compañia a la que pertenece</t>
+  </si>
+  <si>
+    <t>El sistema debe cargar siempre las fechas de modificacion de los archivos</t>
   </si>
 </sst>
 </file>
@@ -352,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -394,6 +397,23 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,23 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6736212D-37F5-4E3D-8185-70E9663A64D7}">
-  <dimension ref="B2:G88"/>
+  <dimension ref="B2:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,12 +752,12 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
@@ -768,7 +772,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -776,9 +780,9 @@
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="15"/>
@@ -786,25 +790,25 @@
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="21"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="D7" s="21"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="D8" s="22"/>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -814,7 +818,7 @@
       <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="9"/>
@@ -824,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
@@ -834,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
@@ -854,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
@@ -864,10 +868,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="15"/>
     </row>
@@ -876,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
@@ -886,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
@@ -896,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
@@ -906,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
@@ -916,7 +920,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
@@ -924,7 +928,7 @@
     <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
@@ -934,7 +938,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="12"/>
@@ -944,10 +948,10 @@
         <v>14</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="15"/>
     </row>
@@ -956,7 +960,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="12"/>
@@ -966,10 +970,10 @@
         <v>16</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="15"/>
     </row>
@@ -978,7 +982,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
@@ -988,7 +992,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
@@ -998,7 +1002,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
@@ -1008,7 +1012,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
@@ -1018,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="12"/>
@@ -1028,10 +1032,10 @@
         <v>22</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="E30" s="15"/>
     </row>
@@ -1040,7 +1044,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
@@ -1050,7 +1054,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
@@ -1060,293 +1064,301 @@
         <v>25</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="28">
+      <c r="B34" s="25">
         <v>26</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="8"/>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="10">
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="29"/>
+      <c r="C35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="29"/>
+    </row>
+    <row r="36" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="10">
         <v>27</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>28</v>
-      </c>
+      <c r="C36" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89">
         <v>80</v>
       </c>
     </row>

--- a/Requerimientos.xlsx
+++ b/Requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4CC82A-08F0-423C-81AE-E699B70786C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E95069-8E3C-4F83-8E62-8FBA49A44484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7A99C71F-B794-498D-B858-2FA677687D15}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>REQUERIMIENTOS</t>
   </si>
@@ -95,12 +95,6 @@
     <t>super_administrador</t>
   </si>
   <si>
-    <t>El usuario debe tener la opcion para ir a activar administradores de area.</t>
-  </si>
-  <si>
-    <t>El usuario debe tener la opcion para ir a eliminar y editar usuarios.</t>
-  </si>
-  <si>
     <t>El usuario de sistemas desea buscar tickets con coincidencias en el titulo o descripcion</t>
   </si>
   <si>
@@ -162,6 +156,42 @@
   </si>
   <si>
     <t>El sistema debe cargar siempre las fechas de modificacion de los archivos</t>
+  </si>
+  <si>
+    <t>El usuario adminitrador tendra la opcion para ir a ver usuarios.</t>
+  </si>
+  <si>
+    <t>El usuario adminitrador tendra un buscador para buscar usuarios.</t>
+  </si>
+  <si>
+    <t>El usuario administrador podra modificar, activar y eliminar usuarios.</t>
+  </si>
+  <si>
+    <t>El usuario podra crear directorios, modificarlos y eliminarlos.</t>
+  </si>
+  <si>
+    <t>El sistema al crear un directorio, modificarlo, eliminarlo o editarlo enviara un correo con la informacion realizada</t>
+  </si>
+  <si>
+    <t>El sistema generara un codigo aleatorio para acceder al directorio.</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar los tickets en negrilla si son para el usuario.</t>
+  </si>
+  <si>
+    <t>El sistema debe resaltar en color verde los evaluados como bueno, fallidos en rojo, incompletos amarillo o pendientes por revision morado.</t>
+  </si>
+  <si>
+    <t>COORDINADOR TIENDA</t>
+  </si>
+  <si>
+    <t>El sistema debe permitirle crear, modificar y eliminar un ticket.</t>
+  </si>
+  <si>
+    <t>El sistema debe enviar el ticket al jefe.</t>
+  </si>
+  <si>
+    <t>El sistema tendra un apartado de filtros para ver mis archivos o todos los que tengan que ver conmigo.</t>
   </si>
 </sst>
 </file>
@@ -245,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -333,29 +363,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -388,15 +400,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -406,14 +409,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,7 +421,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6736212D-37F5-4E3D-8185-70E9663A64D7}">
-  <dimension ref="B2:G89"/>
+  <dimension ref="B2:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,12 +758,12 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
@@ -772,7 +778,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -780,36 +786,38 @@
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
       <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="D6" s="18"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="D7" s="18"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="12"/>
+    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
@@ -818,7 +826,7 @@
       <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="9"/>
@@ -828,7 +836,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
@@ -838,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
@@ -853,27 +861,27 @@
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10">
+    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
         <v>6</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
+      <c r="B14" s="7">
         <v>7</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
@@ -928,437 +936,500 @@
     <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
         <v>13</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
+      <c r="B22" s="7">
         <v>14</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10">
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
         <v>15</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="13">
-        <v>16</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="15"/>
+      <c r="C24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>15</v>
+      </c>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="7">
-        <v>19</v>
-      </c>
+    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
-        <v>20</v>
-      </c>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="10">
+    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
+        <v>18</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <v>19</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="13">
-        <v>22</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="15"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
+        <v>21</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
+        <v>22</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
+        <v>23</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <v>24</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="7">
         <v>25</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="25">
+      <c r="C39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="7">
         <v>26</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="7">
+        <v>27</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="24"/>
-    </row>
-    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="29"/>
-      <c r="C35" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="29"/>
-    </row>
-    <row r="36" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="10">
-        <v>27</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37">
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B43" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38">
+      <c r="C43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="10">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39">
+      <c r="C44" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>36</v>
+      <c r="C45" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95">
         <v>80</v>
       </c>
     </row>
